--- a/GUIA 5/roles.xlsx
+++ b/GUIA 5/roles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgeuj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgeuj\Documents\GitHub\Laboratorio-de-bases-de-datos-1\GUIA 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{E0062DBC-D265-46E5-8317-08F1E6EADC08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CED8E24-83A9-4BED-9BA6-882017E726CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7425" xr2:uid="{1B7AA85E-DA38-4849-B22B-1008C7CF8C7D}"/>
   </bookViews>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED0D149-8B1C-44F0-ABF7-5B49734D841E}">
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -577,7 +577,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
